--- a/2025-03-03_4o-mini_feedback_sheets/overall_spec/Pericarditis_spec_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_spec/Pericarditis_spec_overall.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hist" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="soc" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="obj" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -461,44 +462,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pain worse when lying down (positional) is present.</t>
+          <t>Pain when swallowing (aka odynophagia) is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Positional pain is a classic symptom of pericarditis, as lying down can increase pressure on the pericardium.</t>
+          <t>Odynophagia can be associated with esophageal involvement, which can sometimes mimic pericarditis symptoms.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Shortness of breath is absent.</t>
+          <t>Pleuritic character of the pain is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Shortness of breath is a common symptom in pericarditis due to potential fluid accumulation or inflammation.</t>
+          <t>Pleuritic chest pain is a hallmark of pericarditis, and its absence makes the diagnosis less likely.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tightness (character of pain) is present.</t>
+          <t>Pain worse when lying down (positional) is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tightness can be associated with pericarditis, as patients often describe the pain in this manner.</t>
+          <t>Positional chest pain is a classic feature of pericarditis, as the pain often worsens when lying flat.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cough reported is absent.</t>
+          <t>Sharp character of the pain is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Cough can be associated with pericarditis, especially if there is pleuritic involvement.</t>
+          <t>Sharp chest pain is often associated with pericarditis, and its absence argues against the diagnosis.</t>
         </is>
       </c>
     </row>
@@ -510,61 +511,61 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pain located in the center of the chest is a common presentation in pericarditis.</t>
+          <t>Substernal chest pain is a common symptom of pericarditis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Nausea and/or vomiting is absent.</t>
+          <t>Stabbing character of the pain is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Nausea and vomiting can occur in pericarditis, particularly if there is significant pain or associated gastrointestinal symptoms.</t>
+          <t>Stabbing pain is another characteristic of pericarditis, and its absence reduces the likelihood of this diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pain when swallowing (aka odynophagia) is present.</t>
+          <t>Tightness (character of pain) is present.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Odynophagia can occur in pericarditis due to irritation of surrounding structures.</t>
+          <t>Chest pain described as tightness can be indicative of pericarditis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Radiation of pain to the back is absent.</t>
+          <t>Shortness of breath is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Pain that radiates to the back is often seen in pericarditis, and its absence weakens the likelihood of this diagnosis.</t>
+          <t>Shortness of breath can accompany pericarditis due to pericardial effusion, and its absence is against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Current heartburn is present.</t>
+          <t>Pain is reproducible with arm movements is present.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Heartburn can sometimes be confused with pericarditis, as both can present with chest pain.</t>
+          <t>While not specific, pain reproducible with movement can sometimes be seen in pericarditis due to inflammation.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Diaphoresis is absent.</t>
+          <t>Radiation of pain to the back is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Diaphoresis can be a sign of pericarditis, especially if there is significant pain or distress.</t>
+          <t>Pain radiating to the back can be seen in pericarditis, and its absence makes the diagnosis less likely.</t>
         </is>
       </c>
     </row>
@@ -612,110 +613,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Female is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pericarditis is more common in females, particularly in middle age, which supports the diagnosis.</t>
+          <t>Pericarditis can occur in females, and while gender is not a strong determinant, it does not rule out the condition.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Alcohol use disorder is absent</t>
+          <t>Absence of prior myocardial infarction.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Alcohol use disorder can be a risk factor for pericarditis; its absence may reduce the likelihood of the diagnosis.</t>
+          <t>Myocardial infarction is a common cause of pericarditis, and its absence reduces the likelihood of pericarditis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Middle age</t>
+          <t>Middle age is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pericarditis is more prevalent in middle-aged individuals, which increases the likelihood of this diagnosis.</t>
+          <t>Pericarditis can occur in middle-aged individuals, and age is not a strong determinant against the condition.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nicotine dependence is absent</t>
+          <t>Absence of diagnosed hypertension.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nicotine dependence is a risk factor for cardiovascular diseases; its absence may suggest a lower likelihood of pericarditis.</t>
+          <t>Hypertension is a risk factor for cardiovascular diseases, including pericarditis, and its absence reduces the likelihood.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Takes amlodipine</t>
+          <t>Takes amlodipine is present.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amlodipine is a calcium channel blocker that can be associated with pericardial effusion, which may lead to pericarditis.</t>
+          <t>Amlodipine is used for hypertension, which can be associated with cardiovascular conditions, including pericarditis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Prior treatment with radiation to the neck, arm, or jaw is absent</t>
+          <t>Absence of recent medication changes.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Radiation exposure is a known risk factor for pericarditis; its absence decreases the likelihood of this diagnosis.</t>
+          <t>Recent medication changes can sometimes lead to pericarditis, and their absence reduces the likelihood.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Absence of coronary artery disease</t>
+          <t>Absence of prior myocardial infarction.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The absence of coronary artery disease makes pericarditis a more likely diagnosis, as it can present with similar symptoms.</t>
+          <t>While myocardial infarction can lead to pericarditis, its absence does not strongly rule out pericarditis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Absence of prior myocardial infarction</t>
+          <t>Absence of prior treatment with radiation to the neck, arm, or jaw.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A history of myocardial infarction can lead to pericarditis; its absence may suggest that pericarditis is less likely.</t>
+          <t>Radiation therapy can lead to pericarditis, and its absence reduces the likelihood.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Absence of hypertension</t>
+          <t>Absence of diagnosed hypertension.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of hypertension, a common risk factor for heart disease, may suggest that pericarditis is a more likely cause of symptoms.</t>
+          <t>Hypertension can be a risk factor for cardiovascular diseases, but its absence does not strongly rule out pericarditis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Absence of environmental allergies</t>
+          <t>Absence of previously diagnosed Coronary Artery Disease.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Environmental allergies can sometimes be associated with pericarditis; their absence may reduce the likelihood of the diagnosis.</t>
+          <t>Coronary Artery Disease can be associated with pericarditis, and its absence reduces the likelihood.</t>
         </is>
       </c>
     </row>
@@ -768,61 +769,61 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Social stress can be a precipitating factor for pericarditis, as it may lead to inflammatory responses.</t>
+          <t>Social stress can be a contributing factor to inflammatory conditions, including pericarditis, due to its impact on the immune system.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recent Travel is absent.</t>
+          <t>Alcohol use is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Recent travel can be a risk factor for viral infections that may lead to pericarditis; its absence suggests a lower likelihood of infectious causes.</t>
+          <t>The absence of alcohol use reduces the risk of pericarditis, as alcohol can contribute to heart inflammation.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Family history of myocardial infarction in father is present.</t>
+          <t>Prior tobacco use is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A family history of cardiovascular issues may suggest a predisposition to conditions like pericarditis, which can be associated with underlying heart disease.</t>
+          <t>While not directly linked, prior tobacco use can contribute to cardiovascular issues, which may be associated with pericarditis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recent medical procedure is absent.</t>
+          <t>Current tobacco use is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of recent medical procedures reduces the likelihood of post-surgical pericarditis, which is a common cause.</t>
+          <t>The absence of current tobacco use reduces the risk of cardiovascular and inflammatory conditions, including pericarditis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Prior tobacco use is present.</t>
+          <t>Family history of myocardial infarction in father is present.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tobacco use has been associated with increased cardiovascular risk, which may correlate with inflammatory conditions such as pericarditis.</t>
+          <t>A family history of cardiovascular disease can be associated with an increased risk of pericarditis due to shared risk factors.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Gestational complications with prior pregnancy is absent.</t>
+          <t>Recent medical procedure is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of gestational complications suggests a lower likelihood of pericarditis related to pregnancy or postpartum issues.</t>
+          <t>The absence of recent medical procedures reduces the likelihood of post-procedural pericarditis.</t>
         </is>
       </c>
     </row>
@@ -834,7 +835,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>While the absence of rheumatoid arthritis may not directly support pericarditis, it suggests that other autoimmune conditions are less likely, which can sometimes be a cause of pericarditis.</t>
+          <t>The absence of a family history of autoimmune diseases like rheumatoid arthritis does not strongly support pericarditis, but its presence would have been more indicative.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -844,29 +845,29 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of cancer in the family may suggest a lower likelihood of malignancy-related pericarditis.</t>
+          <t>The absence of a family history of cancer does not directly impact the likelihood of pericarditis, but its presence could suggest other underlying conditions.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Alcohol use is absent.</t>
+          <t>Recent Travel is absent.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of alcohol use may reduce the risk of certain types of pericarditis that can be associated with alcohol consumption.</t>
+          <t>The absence of recent travel reduces the likelihood of infectious causes of pericarditis, but does not strongly support or refute the diagnosis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Current tobacco use is absent.</t>
+          <t>Gestational complications with prior pregnancy is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of current tobacco use may indicate a lower risk for cardiovascular complications that could lead to pericarditis.</t>
+          <t>The absence of gestational complications does not directly relate to pericarditis, but its presence could indicate other health issues.</t>
         </is>
       </c>
     </row>
@@ -919,17 +920,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Telangiectasias can be associated with autoimmune conditions that may lead to pericarditis.</t>
+          <t>Telangiectasias can be associated with connective tissue diseases, which can sometimes be linked with pericarditis.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Raynauds phenomenon on exam is absent.</t>
+          <t>Absence of Raynaud's phenomenon on exam.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of Raynaud's phenomenon suggests that there may not be an underlying autoimmune condition that could lead to pericarditis.</t>
+          <t>Raynaud's phenomenon is not directly related to pericarditis, but its absence does not strongly argue against pericarditis.</t>
         </is>
       </c>
     </row>
@@ -941,83 +942,234 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Weight loss can indicate an underlying inflammatory process, which may be present in pericarditis.</t>
+          <t>Weight loss can be a non-specific symptom associated with chronic inflammation, which can occur in pericarditis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Hoarse voice observed is absent.</t>
+          <t>Absence of hoarse voice observed.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Absence of hoarseness may indicate that there is no involvement of the laryngeal nerve, which can occur in pericarditis.</t>
+          <t>A hoarse voice is not typically associated with pericarditis, so its absence does not strongly argue against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cough observed is absent.</t>
+          <t>Absence of high blood pressure when checked.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Absence of cough may suggest that respiratory causes of chest pain are less likely, allowing for consideration of pericarditis.</t>
+          <t>While not directly indicative of pericarditis, the absence of high blood pressure can sometimes be seen in cases where pericarditis leads to cardiac tamponade, causing low blood pressure.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cough observed is absent.</t>
+          <t>Absence of cough observed.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Absence of cough may suggest that respiratory causes of chest pain are less likely, which does not support pericarditis.</t>
+          <t>Cough is not a primary symptom of pericarditis, so its absence does not strongly argue against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hoarse voice observed is absent.</t>
+          <t>Absence of obesity by vital signs.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Absence of hoarseness may indicate that there is no involvement of the laryngeal nerve, which can occur in pericarditis.</t>
+          <t>Obesity is not typically associated with pericarditis, so its absence does not strongly favor or disfavor the diagnosis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Joint swelling observed is absent.</t>
+          <t>Absence of epigastric pain on palpation.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Absence of joint swelling may indicate that there is no associated inflammatory arthritis, which can occur with pericarditis.</t>
+          <t>Epigastric pain is not a typical feature of pericarditis, so its absence does not strongly argue against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Weakness on exam is absent.</t>
+          <t>Absence of joint swelling observed.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Absence of weakness may suggest that systemic illness is not present, allowing for localized conditions like pericarditis to be considered.</t>
+          <t>Joint swelling is not a typical feature of pericarditis, so its absence does not strongly favor or disfavor the diagnosis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Rheumatoid nodules is absent.</t>
+          <t>Absence of weakness on exam.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Absence of rheumatoid nodules suggests that there is no underlying rheumatoid arthritis, which can be associated with pericarditis.</t>
+          <t>Weakness is not a primary symptom of pericarditis, so its absence does not strongly argue against the diagnosis.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Supports Pericarditis</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale for Pericarditis</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Against Pericarditis</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale Against Pericarditis</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia on lab testing is present.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia is not directly related to Pericarditis, but it can be associated with conditions that may lead to secondary pericardial involvement.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CXR shows widened mediastinum is absent.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>The absence of a widened mediastinum suggests against conditions like aortic dissection, which can mimic Pericarditis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ANA strong positive is absent.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>The absence of a strong positive ANA does not directly support Pericarditis, but it does not rule it out either, as ANA is more related to autoimmune causes.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CT shows ILD is absent.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>The absence of ILD suggests against lung-related causes of chest pain, which can be confused with Pericarditis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MBS shows aspiration is absent.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>The absence of aspiration does not directly support Pericarditis, but it rules out aspiration-related causes of chest pain.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>MBS shows aspiration is absent.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>The absence of aspiration suggests against aspiration pneumonia, which can present with chest pain similar to Pericarditis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CT shows ILD is absent.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>The absence of ILD does not directly support Pericarditis, but it rules out interstitial lung disease as a cause of symptoms.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ANA strong positive is absent.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>The absence of a strong positive ANA suggests against autoimmune causes of Pericarditis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CXR shows widened mediastinum is absent.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>The absence of a widened mediastinum does not directly support Pericarditis, but it rules out other causes of mediastinal widening.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia on lab testing is present.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia is not typically associated with Pericarditis and may suggest other cardiovascular conditions.</t>
         </is>
       </c>
     </row>
